--- a/Bead/Posix/Posix.xlsx
+++ b/Bead/Posix/Posix.xlsx
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>2 szál</t>
-  </si>
-  <si>
-    <t>3 szál</t>
   </si>
   <si>
     <t>4szál</t>
@@ -31,9 +28,6 @@
   </si>
   <si>
     <t>16szál</t>
-  </si>
-  <si>
-    <t>32szál</t>
   </si>
   <si>
     <t>szekv</t>
@@ -120,14 +114,64 @@
       <c:thickness val="0"/>
     </c:backWall>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.2565497931241879E-2"/>
+          <c:y val="3.0171481515906633E-2"/>
+          <c:w val="0.90831168864266443"/>
+          <c:h val="0.93225749816686065"/>
+        </c:manualLayout>
+      </c:layout>
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>szekv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>Normál</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Munka1!$B$1</c:f>
@@ -142,29 +186,20 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Munka1!$A$3:$A$9</c:f>
+              <c:f>Munka1!$A$3:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>Normál</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>32768</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16777216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131072</c:v>
+                  <c:v>33554432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1048576</c:v>
+                  <c:v>67108864</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16777216</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33554432</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>67108864</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>134217728</c:v>
                 </c:pt>
               </c:numCache>
@@ -172,30 +207,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$B$3:$B$9</c:f>
+              <c:f>Munka1!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>Normál</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3000000000000002E-2</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.214</c:v>
+                  <c:v>0.20300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1840000000000002</c:v>
+                  <c:v>0.42199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4029999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.638</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25.209</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -203,10 +232,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Munka1!$D$1</c:f>
+              <c:f>Munka1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -218,29 +247,20 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Munka1!$A$3:$A$9</c:f>
+              <c:f>Munka1!$A$3:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>Normál</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>32768</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16777216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131072</c:v>
+                  <c:v>33554432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1048576</c:v>
+                  <c:v>67108864</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16777216</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33554432</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>67108864</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>134217728</c:v>
                 </c:pt>
               </c:numCache>
@@ -248,30 +268,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$D$3:$D$9</c:f>
+              <c:f>Munka1!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>Normál</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.2E-2</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3000000000000002E-2</c:v>
+                  <c:v>7.8E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.217</c:v>
+                  <c:v>0.156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3740000000000001</c:v>
+                  <c:v>0.29699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7510000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.596</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27.222000000000001</c:v>
+                  <c:v>0.60899999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -279,10 +293,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Munka1!$E$1</c:f>
+              <c:f>Munka1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -294,29 +308,20 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Munka1!$A$3:$A$9</c:f>
+              <c:f>Munka1!$A$3:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>Normál</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>32768</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16777216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131072</c:v>
+                  <c:v>33554432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1048576</c:v>
+                  <c:v>67108864</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16777216</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33554432</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>67108864</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>134217728</c:v>
                 </c:pt>
               </c:numCache>
@@ -324,30 +329,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$E$3:$E$9</c:f>
+              <c:f>Munka1!$D$3:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>Normál</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4000000000000002E-2</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.218</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4710000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.9370000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.871</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27.2</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -355,10 +351,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Munka1!$F$1</c:f>
+              <c:f>Munka1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -370,29 +366,20 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Munka1!$A$3:$A$9</c:f>
+              <c:f>Munka1!$A$3:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>Normál</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>32768</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16777216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131072</c:v>
+                  <c:v>33554432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1048576</c:v>
+                  <c:v>67108864</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16777216</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33554432</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>67108864</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>134217728</c:v>
                 </c:pt>
               </c:numCache>
@@ -400,143 +387,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$F$3:$F$8</c:f>
+              <c:f>Munka1!$E$3:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>Normál</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.5999999999999999E-2</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6999999999999998E-2</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.217</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.4209999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.7270000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.84</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Munka1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>32szál</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Munka1!$A$3:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>Normál</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>131072</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1048576</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16777216</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>33554432</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>67108864</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>134217728</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Munka1!$G$3:$G$7</c:f>
-              <c:numCache>
-                <c:formatCode>Normál</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.8000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.222</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.371</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.577</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Munka1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>szekv</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Munka1!$H$3:$H$9</c:f>
-              <c:numCache>
-                <c:formatCode>Normál</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.4000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.33500000000000002</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -552,12 +414,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="208642048"/>
-        <c:axId val="183110464"/>
+        <c:axId val="183741952"/>
+        <c:axId val="145394496"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="208642048"/>
+        <c:axId val="183741952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -567,7 +429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183110464"/>
+        <c:crossAx val="145394496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -575,7 +437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183110464"/>
+        <c:axId val="145394496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -586,7 +448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208642048"/>
+        <c:crossAx val="183741952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -613,14 +475,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:colOff>744071</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -930,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -941,7 +803,7 @@
     <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -957,184 +819,96 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>32768</v>
+        <v>16777216</v>
       </c>
       <c r="B3">
-        <v>0.01</v>
+        <v>4.7E-2</v>
       </c>
       <c r="C3">
-        <v>1.0999999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D3">
-        <v>1.2E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E3">
         <v>1.6E-2</v>
       </c>
       <c r="F3">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="G3">
-        <v>0.22</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>131072</v>
+        <v>33554432</v>
       </c>
       <c r="B4">
-        <v>3.3000000000000002E-2</v>
+        <v>0.11</v>
       </c>
       <c r="C4">
-        <v>0.03</v>
+        <v>7.8E-2</v>
       </c>
       <c r="D4">
-        <v>3.3000000000000002E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E4">
-        <v>3.4000000000000002E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F4">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="G4">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1048576</v>
+        <v>67108864</v>
       </c>
       <c r="B5">
-        <v>0.214</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="C5">
-        <v>0.22</v>
+        <v>0.156</v>
       </c>
       <c r="D5">
-        <v>0.217</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E5">
-        <v>0.218</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F5">
-        <v>0.217</v>
-      </c>
-      <c r="G5">
-        <v>0.222</v>
-      </c>
-      <c r="H5">
-        <v>3.0000000000000001E-3</v>
+        <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>16777216</v>
+        <v>134217728</v>
       </c>
       <c r="B6">
-        <v>3.1840000000000002</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="C6">
-        <v>3.4929999999999999</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="D6">
-        <v>3.3740000000000001</v>
-      </c>
-      <c r="E6">
-        <v>3.4710000000000001</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F6">
-        <v>3.4209999999999998</v>
-      </c>
-      <c r="G6">
-        <v>3.371</v>
-      </c>
-      <c r="H6">
-        <v>4.5999999999999999E-2</v>
+        <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>33554432</v>
+        <v>268435456</v>
       </c>
       <c r="B7">
-        <v>6.4029999999999996</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="C7">
-        <v>6.9210000000000003</v>
-      </c>
-      <c r="D7">
-        <v>6.7510000000000003</v>
-      </c>
-      <c r="E7">
-        <v>6.9370000000000003</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="F7">
-        <v>6.7270000000000003</v>
-      </c>
-      <c r="G7">
-        <v>6.577</v>
-      </c>
-      <c r="H7">
-        <v>8.4000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>67108864</v>
-      </c>
-      <c r="B8">
-        <v>12.638</v>
-      </c>
-      <c r="C8">
-        <v>13.613</v>
-      </c>
-      <c r="D8">
-        <v>13.596</v>
-      </c>
-      <c r="E8">
-        <v>13.871</v>
-      </c>
-      <c r="F8">
-        <v>13.84</v>
-      </c>
-      <c r="H8">
-        <v>0.17100000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>134217728</v>
-      </c>
-      <c r="B9">
-        <v>25.209</v>
-      </c>
-      <c r="C9">
-        <v>27.125</v>
-      </c>
-      <c r="D9">
-        <v>27.222000000000001</v>
-      </c>
-      <c r="E9">
-        <v>27.2</v>
-      </c>
-      <c r="H9">
-        <v>0.33500000000000002</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
